--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Nombre</t>
   </si>
@@ -65,18 +65,12 @@
     <t>Hamburguesas</t>
   </si>
   <si>
-    <t>ClÃ¡sica</t>
-  </si>
-  <si>
     <t>Pan brioche, carne de res 180g, lechuga, tomate, cebolla, queso cheddar</t>
   </si>
   <si>
     <t>8.99</t>
   </si>
   <si>
-    <t>[Foto]</t>
-  </si>
-  <si>
     <t>BBQ Bacon</t>
   </si>
   <si>
@@ -237,6 +231,9 @@
   </si>
   <si>
     <t>Platano, helado de vainilla, chocolate y fresa, nata montada, sirope de chocolate, nueces</t>
+  </si>
+  <si>
+    <t>Clásica</t>
   </si>
 </sst>
 </file>
@@ -295,6 +292,2941 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagen 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagen 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagen 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagen 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagen 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagen 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagen 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagen 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagen 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagen 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagen 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagen 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagen 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Imagen 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagen 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagen 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagen 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Imagen 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagen 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Imagen 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagen 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Imagen 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Imagen 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Imagen 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagen 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Imagen 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Imagen 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Imagen 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,7 +3434,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E2" sqref="E2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,13 +3449,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -542,23 +3474,14 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,22 +3489,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,404 +3503,251 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
+      <c r="D17" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1957,6 +4718,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="63">
   <si>
     <t>Nombre</t>
   </si>
@@ -3226,6 +3226,5856 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Imagen 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Imagen 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Imagen 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Imagen 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Imagen 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Imagen 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Imagen 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Imagen 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Imagen 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Imagen 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Imagen 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Imagen 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Imagen 88"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Imagen 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Imagen 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Imagen 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Imagen 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Imagen 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Imagen 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Imagen 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Imagen 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Imagen 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Imagen 98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Imagen 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Imagen 100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Imagen 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Imagen 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Imagen 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Imagen 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Imagen 105"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Imagen 106"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Imagen 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Imagen 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Imagen 109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Imagen 110"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Imagen 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Imagen 112"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Imagen 113"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Imagen 114"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Imagen 115"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Imagen 116"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Imagen 117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Imagen 118"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Imagen 119"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Imagen 120"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Imagen 121"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Imagen 122"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Imagen 123"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Imagen 124"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Imagen 125"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Imagen 126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Imagen 127"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Imagen 128"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Imagen 129"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Imagen 130"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Imagen 131"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Imagen 132"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Imagen 133"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Imagen 134"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Imagen 135"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Imagen 136"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Imagen 137"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Imagen 138"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Imagen 139"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Imagen 140"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Imagen 141"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Imagen 142"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Imagen 143"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Imagen 144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Imagen 145"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Imagen 146"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Imagen 147"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Imagen 148"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Imagen 149"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Imagen 150"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Imagen 151"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Imagen 152"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Imagen 153"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Imagen 154"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Imagen 155"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Imagen 156"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Imagen 157"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Imagen 158"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="Imagen 159"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="Imagen 160"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="Imagen 161"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Imagen 162"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Imagen 163"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Imagen 164"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Imagen 165"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="Imagen 166"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="Imagen 167"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Imagen 168"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="Imagen 169"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="Imagen 170"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Imagen 171"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="190500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="Imagen 172"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="Imagen 173"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="Imagen 174"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="381000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="Imagen 175"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="Imagen 176"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="Imagen 177"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="571500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Imagen 178"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="Imagen 179"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Imagen 180"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="762000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Imagen 181"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Imagen 182"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Imagen 183"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="952500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="Imagen 184"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Imagen 185"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="Imagen 186"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1143000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Imagen 187"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Imagen 188"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Imagen 189"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1333500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="Imagen 190"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Imagen 191"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="193" name="Imagen 192"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1524000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="194" name="Imagen 193"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="195" name="Imagen 194"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="196" name="Imagen 195"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1714500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="197" name="Imagen 196"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Imagen 197"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="199" name="Imagen 198"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="1905000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="Imagen 199"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="Imagen 200"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="Imagen 201"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2095500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="203" name="Imagen 202"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="Imagen 203"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="Imagen 204"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2286000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Imagen 205"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="Imagen 206"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Imagen 207"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2476500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Imagen 208"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="Imagen 209"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="Imagen 210"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2667000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="Imagen 211"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Imagen 212"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Imagen 213"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="2857500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="Imagen 214"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="Imagen 215"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217" name="Imagen 216"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3048000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="Imagen 217"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="Imagen 218"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="220" name="Imagen 219"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3238500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="221" name="Imagen 220"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="Imagen 221"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="223" name="Imagen 222"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3429000"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="Imagen 223"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211051" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="225" name="Imagen 224"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639676" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="203200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="Imagen 225"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="3619500"/>
+          <a:ext cx="304800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3433,8 +9283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3736,50 +9586,544 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
